--- a/admin/ajax/tmp/data.xlsx
+++ b/admin/ajax/tmp/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="135">
   <si>
     <t>NIM</t>
   </si>
@@ -27,18 +27,12 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Periode</t>
   </si>
   <si>
-    <t>jk</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -403,6 +397,33 @@
   </si>
   <si>
     <t>2017/2018</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>TI 2015 A</t>
+  </si>
+  <si>
+    <t>TI 2015 B</t>
+  </si>
+  <si>
+    <t>TI 2015 C</t>
+  </si>
+  <si>
+    <t>TI 2015 D</t>
+  </si>
+  <si>
+    <t>TI 2015 E</t>
+  </si>
+  <si>
+    <t>TI 2015 F</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
   </si>
 </sst>
 </file>
@@ -427,7 +448,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -459,16 +480,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,9 +835,9 @@
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -811,16 +846,17 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -828,17 +864,19 @@
         <v>1411001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -846,17 +884,19 @@
         <v>1411002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -864,17 +904,19 @@
         <v>1411003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -882,17 +924,19 @@
         <v>1411004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -900,17 +944,19 @@
         <v>1411005</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -918,17 +964,19 @@
         <v>1411006</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -936,17 +984,19 @@
         <v>1411007</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -954,17 +1004,19 @@
         <v>1411008</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -972,17 +1024,19 @@
         <v>1411009</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -990,17 +1044,19 @@
         <v>1411010</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1008,17 +1064,19 @@
         <v>1411011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1026,17 +1084,19 @@
         <v>1411012</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1044,17 +1104,19 @@
         <v>1411013</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1062,17 +1124,19 @@
         <v>1411014</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1080,14 +1144,16 @@
         <v>1411015</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1098,14 +1164,16 @@
         <v>1411016</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,14 +1184,16 @@
         <v>1411017</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,14 +1204,16 @@
         <v>1411018</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1152,14 +1224,16 @@
         <v>1411019</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,14 +1244,16 @@
         <v>1411020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1188,14 +1264,16 @@
         <v>1411021</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,14 +1284,16 @@
         <v>1411022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,14 +1304,16 @@
         <v>1411023</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1242,14 +1324,16 @@
         <v>1411024</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1260,14 +1344,16 @@
         <v>1411025</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,14 +1364,16 @@
         <v>1411026</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1296,14 +1384,16 @@
         <v>1411027</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,14 +1404,16 @@
         <v>1411028</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,14 +1424,16 @@
         <v>1411029</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1350,14 +1444,16 @@
         <v>1411030</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,14 +1464,16 @@
         <v>1411031</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,14 +1484,16 @@
         <v>1411032</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,14 +1504,16 @@
         <v>1411033</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1422,14 +1524,16 @@
         <v>1411034</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,14 +1544,16 @@
         <v>1411035</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1458,14 +1564,16 @@
         <v>1411036</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1476,14 +1584,16 @@
         <v>1411037</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,14 +1604,16 @@
         <v>1411038</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1512,14 +1624,16 @@
         <v>1411039</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1530,14 +1644,16 @@
         <v>1411040</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1548,14 +1664,16 @@
         <v>1411041</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,14 +1684,16 @@
         <v>1411042</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,14 +1704,16 @@
         <v>1411043</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1602,14 +1724,16 @@
         <v>1411044</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,14 +1744,16 @@
         <v>1411045</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,14 +1764,16 @@
         <v>1411046</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1656,14 +1784,16 @@
         <v>1411047</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,14 +1804,16 @@
         <v>1411048</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,14 +1824,16 @@
         <v>1411049</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1710,14 +1844,16 @@
         <v>1411050</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,14 +1864,16 @@
         <v>1411051</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E52" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,14 +1884,16 @@
         <v>1411052</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,14 +1904,16 @@
         <v>1411053</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1782,14 +1924,16 @@
         <v>1411054</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1800,14 +1944,16 @@
         <v>1411055</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,14 +1964,16 @@
         <v>1411056</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,14 +1984,16 @@
         <v>1411057</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,14 +2004,16 @@
         <v>1411058</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,14 +2024,16 @@
         <v>1411059</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,14 +2044,16 @@
         <v>1411060</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1908,14 +2064,16 @@
         <v>1411061</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,14 +2084,16 @@
         <v>1411062</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,14 +2104,16 @@
         <v>1411063</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,14 +2124,16 @@
         <v>1411064</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1980,14 +2144,16 @@
         <v>1411065</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1998,14 +2164,16 @@
         <v>1411066</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E67" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2016,14 +2184,16 @@
         <v>1411067</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2034,14 +2204,16 @@
         <v>1411068</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,14 +2224,16 @@
         <v>1411069</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2070,14 +2244,16 @@
         <v>1411070</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2088,14 +2264,16 @@
         <v>1411071</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E72" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2106,14 +2284,16 @@
         <v>1411072</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,14 +2304,16 @@
         <v>1411073</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2142,14 +2324,16 @@
         <v>1411074</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E75" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2160,14 +2344,16 @@
         <v>1411075</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E76" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2178,14 +2364,16 @@
         <v>1411076</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E77" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2196,14 +2384,16 @@
         <v>1411077</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,14 +2404,16 @@
         <v>1411078</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E79" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,14 +2424,16 @@
         <v>1411079</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2250,14 +2444,16 @@
         <v>1411080</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,14 +2464,16 @@
         <v>1411081</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,14 +2484,16 @@
         <v>1411082</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2304,14 +2504,16 @@
         <v>1411083</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E84" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2322,14 +2524,16 @@
         <v>1411084</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D85" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E85" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,14 +2544,16 @@
         <v>1411085</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2358,14 +2564,16 @@
         <v>1411086</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,14 +2584,16 @@
         <v>1411087</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2394,14 +2604,16 @@
         <v>1411088</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2412,14 +2624,16 @@
         <v>1411089</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2430,14 +2644,16 @@
         <v>1411090</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E91" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,14 +2664,16 @@
         <v>1411091</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2466,14 +2684,16 @@
         <v>1411092</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2484,14 +2704,16 @@
         <v>1411093</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2502,14 +2724,16 @@
         <v>1411094</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D95" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E95" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2520,14 +2744,16 @@
         <v>1411095</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E96" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2538,14 +2764,16 @@
         <v>1411096</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2556,14 +2784,16 @@
         <v>1411097</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2574,14 +2804,16 @@
         <v>1411098</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2592,14 +2824,16 @@
         <v>1411099</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D100" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2610,14 +2844,16 @@
         <v>1411100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E101" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,14 +2864,16 @@
         <v>1411101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D102" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E102" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2646,14 +2884,16 @@
         <v>1411102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E103" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,14 +2904,16 @@
         <v>1411103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E104" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,14 +2924,16 @@
         <v>1411104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D105" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E105" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2700,14 +2944,16 @@
         <v>1411105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D106" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2718,14 +2964,16 @@
         <v>1411106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E107" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,14 +2984,16 @@
         <v>1411107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E108" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,14 +3004,16 @@
         <v>1411108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E109" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,14 +3024,16 @@
         <v>1411109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E110" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2790,14 +3044,16 @@
         <v>1411110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D111" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E111" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2808,14 +3064,16 @@
         <v>1411111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D112" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E112" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -2826,14 +3084,16 @@
         <v>1411112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D113" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E113" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -2844,14 +3104,16 @@
         <v>1411113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D114" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E114" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -2862,14 +3124,16 @@
         <v>1411114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D115" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -2880,14 +3144,16 @@
         <v>1411115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D116" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E116" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -2898,14 +3164,16 @@
         <v>1411116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D117" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E117" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -2916,14 +3184,16 @@
         <v>1411117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D118" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E118" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -2934,14 +3204,16 @@
         <v>1411118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E119" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,14 +3224,16 @@
         <v>1411119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D120" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E120" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H120" s="2"/>
     </row>
@@ -2971,647 +3245,2417 @@
         <v>1411120</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1511001</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1511002</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1511003</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F121" s="1" t="s">
+      <c r="B125" s="1">
+        <v>1511004</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1511005</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1511006</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="B128" s="1">
+        <v>1511007</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1511008</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1511009</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1511010</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1511011</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1511012</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1511013</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1511014</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1511015</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1511016</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1511017</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1511018</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1511019</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1511020</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1511021</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1511022</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1511023</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1511024</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1511025</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1511026</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1511027</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1511028</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1511029</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1511030</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1511031</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1511032</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1511033</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1511034</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1511035</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1511036</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1511037</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1511038</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1511039</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1511040</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1511041</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1511042</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1511043</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1511044</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1511045</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1511046</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1511047</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1511048</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1511049</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1511050</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1511051</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1511052</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1511053</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1511054</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1511055</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1511056</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1511057</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1511058</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1511059</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1511060</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1511061</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1511062</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1511063</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1511064</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1511065</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1511066</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1511067</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1511068</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1511069</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1511070</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1511071</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1511072</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1511073</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1511074</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1511075</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1511076</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1511077</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1511078</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1511079</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1511080</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1511081</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1511082</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1511083</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1511084</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1511085</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>1511086</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1511087</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1511088</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1511089</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1511090</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1511091</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1511092</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1511093</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1511094</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1511095</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1511096</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1511097</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1511098</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1511099</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1511100</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1511101</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1511102</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1511103</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1511104</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1511105</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1511106</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1511107</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1511108</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1511109</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1">
+        <v>1511110</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1511111</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1">
+        <v>1511112</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1511113</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1511114</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1511115</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1511116</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1511117</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1">
+        <v>1511118</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1511119</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1511120</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
